--- a/predictdata/partcode.xlsx
+++ b/predictdata/partcode.xlsx
@@ -112,11 +112,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,53 +125,119 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,86 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,9 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,24 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -546,6 +515,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,37 +597,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,148 +606,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,13 +755,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,193 +1090,194 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.2019230769231" customWidth="1"/>
-    <col min="2" max="2" width="16.3365384615385" customWidth="1"/>
-    <col min="3" max="3" width="21.7884615384615" customWidth="1"/>
-    <col min="4" max="4" width="20.8269230769231" customWidth="1"/>
+    <col min="1" max="1" width="28.2019230769231" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3365384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7884615384615" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8269230769231" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>50001</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="17" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="15" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>50002</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="1:4">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="15" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>50003</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>50004</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="15" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>50005</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:4">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="15" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>50006</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:4">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="15" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>50011</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="17" spans="1:4">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="15" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>50012</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="17" spans="1:4">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="15" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>50013</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="17" spans="1:4">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="15" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>50014</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="1:4">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="15" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>50015</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="17" spans="1:4">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="15" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>50016</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
